--- a/Programação em Microinformática/EXERCICIO 6 -PROCV E PROCH - AULA.xlsx
+++ b/Programação em Microinformática/EXERCICIO 6 -PROCV E PROCH - AULA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Programação em Microinformática\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanl\Documents\FATEC\Programação em Microinformática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2512764-B397-4B39-ACAF-7D999656E160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE391500-4D06-45D1-8391-D0295E584C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EX1_PROCH" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2068,42 +2079,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="23" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -2124,6 +2099,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -2914,7 +2925,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Introdução a Função ProcV"/>
@@ -3037,9 +3048,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3077,7 +3088,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3183,7 +3194,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3325,7 +3336,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3335,14 +3346,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -3373,10 +3384,10 @@
       <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="105"/>
+      <c r="B3" s="115"/>
     </row>
     <row r="4" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -3408,7 +3419,7 @@
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="116">
+      <c r="B7" s="104">
         <f>HLOOKUP($B$4,$B$14:$U$19,4,0)</f>
         <v>5.3</v>
       </c>
@@ -3869,10 +3880,10 @@
       <c r="F1" s="95" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="125" t="s">
         <v>281</v>
       </c>
-      <c r="I1" s="115"/>
+      <c r="I1" s="125"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
@@ -4474,20 +4485,20 @@
     </row>
     <row r="2" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="107"/>
+      <c r="C3" s="117"/>
     </row>
     <row r="4" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="108"/>
-      <c r="C4" s="109"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="119"/>
     </row>
     <row r="5" spans="2:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="118">
+      <c r="C5" s="106">
         <f>HLOOKUP($C$6,$C$15:$AD$21,7,0)</f>
         <v>1</v>
       </c>
@@ -4496,7 +4507,7 @@
       <c r="B6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="109" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4522,7 +4533,7 @@
       <c r="B9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="120">
+      <c r="C9" s="108">
         <f>HLOOKUP($C$6,$C$15:$AD$21,4,0)</f>
         <v>36650</v>
       </c>
@@ -4540,7 +4551,7 @@
       <c r="B11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="119">
+      <c r="C11" s="107">
         <f>HLOOKUP($C$6,$C$15:$AD$21,6,0)</f>
         <v>0.86</v>
       </c>
@@ -5793,7 +5804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC93AFE-AF60-40CC-8E60-C1DDD809E642}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5804,10 +5815,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="120" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="111"/>
+      <c r="B1" s="121"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
@@ -5857,7 +5868,7 @@
       <c r="A7" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="124">
+      <c r="B7" s="112">
         <f>HLOOKUP($B$2,EX3_PROCH!$B$1:$R$10,10,0)</f>
         <v>150</v>
       </c>
@@ -6893,8 +6904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:C98"/>
   <sheetViews>
-    <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -6911,7 +6922,7 @@
       <c r="B2" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="113" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6968,7 +6979,7 @@
       <c r="B9" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="123">
+      <c r="C9" s="111">
         <f>VLOOKUP(codigo,dados_gerais,7,0)</f>
         <v>11824685311</v>
       </c>
@@ -6977,7 +6988,7 @@
       <c r="B10" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="C10" s="122">
+      <c r="C10" s="110">
         <f>VLOOKUP(codigo,dados_gerais,8,0)</f>
         <v>73.319999999999993</v>
       </c>
@@ -7551,16 +7562,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="114"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="124"/>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="92" t="s">

--- a/Programação em Microinformática/EXERCICIO 6 -PROCV E PROCH - AULA.xlsx
+++ b/Programação em Microinformática/EXERCICIO 6 -PROCV E PROCH - AULA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanl\Documents\FATEC\Programação em Microinformática\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Programação em Microinformática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE391500-4D06-45D1-8391-D0295E584C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2512764-B397-4B39-ACAF-7D999656E160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EX1_PROCH" sheetId="1" r:id="rId1"/>
@@ -39,17 +39,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2079,6 +2068,42 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="23" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -2099,42 +2124,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -2925,7 +2914,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Introdução a Função ProcV"/>
@@ -3048,9 +3037,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3088,7 +3077,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3194,7 +3183,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3336,7 +3325,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3346,14 +3335,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -3384,10 +3373,10 @@
       <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="115"/>
+      <c r="B3" s="105"/>
     </row>
     <row r="4" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -3419,7 +3408,7 @@
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="104">
+      <c r="B7" s="116">
         <f>HLOOKUP($B$4,$B$14:$U$19,4,0)</f>
         <v>5.3</v>
       </c>
@@ -3880,10 +3869,10 @@
       <c r="F1" s="95" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="125" t="s">
+      <c r="H1" s="115" t="s">
         <v>281</v>
       </c>
-      <c r="I1" s="125"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
@@ -4485,20 +4474,20 @@
     </row>
     <row r="2" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:30" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="117"/>
+      <c r="C3" s="107"/>
     </row>
     <row r="4" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="118"/>
-      <c r="C4" s="119"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="109"/>
     </row>
     <row r="5" spans="2:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="106">
+      <c r="C5" s="118">
         <f>HLOOKUP($C$6,$C$15:$AD$21,7,0)</f>
         <v>1</v>
       </c>
@@ -4507,7 +4496,7 @@
       <c r="B6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="121" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4533,7 +4522,7 @@
       <c r="B9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="108">
+      <c r="C9" s="120">
         <f>HLOOKUP($C$6,$C$15:$AD$21,4,0)</f>
         <v>36650</v>
       </c>
@@ -4551,7 +4540,7 @@
       <c r="B11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="107">
+      <c r="C11" s="119">
         <f>HLOOKUP($C$6,$C$15:$AD$21,6,0)</f>
         <v>0.86</v>
       </c>
@@ -5804,7 +5793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC93AFE-AF60-40CC-8E60-C1DDD809E642}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5815,10 +5804,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="110" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="121"/>
+      <c r="B1" s="111"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
@@ -5868,7 +5857,7 @@
       <c r="A7" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="112">
+      <c r="B7" s="124">
         <f>HLOOKUP($B$2,EX3_PROCH!$B$1:$R$10,10,0)</f>
         <v>150</v>
       </c>
@@ -6904,8 +6893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:C98"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -6922,7 +6911,7 @@
       <c r="B2" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="125" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6979,7 +6968,7 @@
       <c r="B9" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="111">
+      <c r="C9" s="123">
         <f>VLOOKUP(codigo,dados_gerais,7,0)</f>
         <v>11824685311</v>
       </c>
@@ -6988,7 +6977,7 @@
       <c r="B10" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="C10" s="110">
+      <c r="C10" s="122">
         <f>VLOOKUP(codigo,dados_gerais,8,0)</f>
         <v>73.319999999999993</v>
       </c>
@@ -7562,16 +7551,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="112" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="124"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114"/>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="92" t="s">
